--- a/OperationCoding (solo cycle time).xlsx
+++ b/OperationCoding (solo cycle time).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\Trabajo\BPI Challenge\bpi-challenge-performance-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0.sharepoint.com/sites/PEJUS685/Documentos compartidos/General/BPI Challenge/Artículo/Material suplementario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE0C1D31-71C5-4F65-A369-69DE6C7FFF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{F7909D8E-4EE6-4C99-A3C0-6D0DF1FE3712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7521DF08-CEEA-44E7-A7C9-9C9F5286D464}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1584,15 +1584,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1605,10 +1599,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1952,21 +1952,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B148" sqref="B148:B154"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" customWidth="1"/>
+    <col min="4" max="4" width="44.453125" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" customWidth="1"/>
+    <col min="7" max="7" width="39.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1990,11 +1990,11 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2008,9 +2008,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2022,9 +2022,9 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2036,9 +2036,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2050,9 +2050,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2064,9 +2064,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2078,9 +2078,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2092,9 +2092,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>458</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2138,11 +2138,11 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2156,9 +2156,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+    <row r="13" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2172,9 +2172,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2186,9 +2186,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="1" t="s">
         <v>393</v>
       </c>
@@ -2200,9 +2200,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2214,9 +2214,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="1" t="s">
         <v>396</v>
       </c>
@@ -2228,9 +2228,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2242,9 +2242,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
         <v>397</v>
       </c>
@@ -2256,9 +2256,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
@@ -2270,9 +2270,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,9 +2284,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
@@ -2298,9 +2298,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+    <row r="23" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
         <v>387</v>
       </c>
@@ -2312,8 +2312,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+    <row r="24" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
       <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>428</v>
@@ -2326,7 +2326,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>418</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2426,11 +2426,11 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2448,9 +2448,9 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
@@ -2464,9 +2464,9 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+    <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="1" t="s">
         <v>72</v>
       </c>
@@ -2478,9 +2478,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+    <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2492,9 +2492,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="1" t="s">
         <v>76</v>
       </c>
@@ -2506,9 +2506,9 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+    <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="1" t="s">
         <v>78</v>
       </c>
@@ -2520,9 +2520,9 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
+    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="1" t="s">
         <v>80</v>
       </c>
@@ -2534,9 +2534,9 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+    <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2548,9 +2548,9 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+    <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
@@ -2562,9 +2562,9 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
+    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2576,9 +2576,9 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
+    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="1" t="s">
         <v>88</v>
       </c>
@@ -2590,9 +2590,9 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2604,9 +2604,9 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
+    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2618,11 +2618,11 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+    <row r="44" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2638,9 +2638,9 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
+    <row r="45" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="1" t="s">
         <v>96</v>
       </c>
@@ -2655,9 +2655,9 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
+    <row r="46" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="1" t="s">
         <v>100</v>
       </c>
@@ -2673,9 +2673,9 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
+    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="1" t="s">
         <v>103</v>
       </c>
@@ -2687,9 +2687,9 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
+    <row r="48" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="1" t="s">
         <v>104</v>
       </c>
@@ -2703,11 +2703,11 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2721,9 +2721,9 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22"/>
+    <row r="50" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="1" t="s">
         <v>111</v>
       </c>
@@ -2737,9 +2737,9 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="22"/>
+    <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="1" t="s">
         <v>114</v>
       </c>
@@ -2751,9 +2751,9 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="22"/>
+    <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="1" t="s">
         <v>116</v>
       </c>
@@ -2765,9 +2765,9 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="22"/>
+    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="1" t="s">
         <v>118</v>
       </c>
@@ -2779,9 +2779,9 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="22"/>
+    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="18"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="1" t="s">
         <v>120</v>
       </c>
@@ -2793,9 +2793,9 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="22"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="18"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="1" t="s">
         <v>122</v>
       </c>
@@ -2807,9 +2807,9 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="22"/>
+    <row r="56" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="1" t="s">
         <v>124</v>
       </c>
@@ -2823,9 +2823,9 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="22"/>
+    <row r="57" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="18"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="1" t="s">
         <v>127</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -2857,11 +2857,11 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+    <row r="59" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>135</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2877,9 +2877,9 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+    <row r="60" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="1" t="s">
         <v>139</v>
       </c>
@@ -2893,9 +2893,9 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="1" t="s">
         <v>142</v>
       </c>
@@ -2907,9 +2907,9 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+    <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="1" t="s">
         <v>144</v>
       </c>
@@ -2923,9 +2923,9 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="1" t="s">
         <v>147</v>
       </c>
@@ -2935,9 +2935,9 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="1" t="s">
         <v>148</v>
       </c>
@@ -2949,9 +2949,9 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+    <row r="65" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="1" t="s">
         <v>150</v>
       </c>
@@ -2965,9 +2965,9 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+    <row r="66" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="1" t="s">
         <v>153</v>
       </c>
@@ -2981,9 +2981,9 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
+    <row r="67" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="1" t="s">
         <v>156</v>
       </c>
@@ -2997,11 +2997,11 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+    <row r="68" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3019,9 +3019,9 @@
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
+    <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="1" t="s">
         <v>165</v>
       </c>
@@ -3037,9 +3037,9 @@
       </c>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
+    <row r="70" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="1" t="s">
         <v>167</v>
       </c>
@@ -3055,9 +3055,9 @@
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
+    <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="1" t="s">
         <v>171</v>
       </c>
@@ -3069,9 +3069,9 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
+    <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="1" t="s">
         <v>173</v>
       </c>
@@ -3083,9 +3083,9 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
+    <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="1" t="s">
         <v>175</v>
       </c>
@@ -3097,9 +3097,9 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
+    <row r="74" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="1" t="s">
         <v>413</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>177</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>184</v>
       </c>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>188</v>
       </c>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>191</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>195</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>197</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>199</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>422</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>201</v>
       </c>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>205</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>209</v>
       </c>
@@ -3313,11 +3313,11 @@
       </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="18" t="s">
         <v>213</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3331,9 +3331,9 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
+    <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="1" t="s">
         <v>216</v>
       </c>
@@ -3345,9 +3345,9 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
+    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="1" t="s">
         <v>218</v>
       </c>
@@ -3359,9 +3359,9 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
+    <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="1" t="s">
         <v>220</v>
       </c>
@@ -3373,9 +3373,9 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
+    <row r="91" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="1" t="s">
         <v>222</v>
       </c>
@@ -3389,11 +3389,11 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+    <row r="92" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="15" t="s">
         <v>410</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -3407,9 +3407,9 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="23"/>
+    <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="18"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="1" t="s">
         <v>416</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="s">
         <v>225</v>
       </c>
@@ -3435,11 +3435,11 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+    <row r="95" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="18" t="s">
         <v>228</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -3453,9 +3453,9 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
+    <row r="96" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="6" t="s">
         <v>231</v>
       </c>
@@ -3469,9 +3469,9 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
+    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="1" t="s">
         <v>233</v>
       </c>
@@ -3483,9 +3483,9 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
+    <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="1" t="s">
         <v>403</v>
       </c>
@@ -3497,11 +3497,11 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+    <row r="99" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="18" t="s">
         <v>236</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3519,9 +3519,9 @@
       </c>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
+    <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="1" t="s">
         <v>241</v>
       </c>
@@ -3533,9 +3533,9 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
+    <row r="101" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="1" t="s">
         <v>243</v>
       </c>
@@ -3547,9 +3547,9 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
+    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="1" t="s">
         <v>245</v>
       </c>
@@ -3561,9 +3561,9 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
+    <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="1" t="s">
         <v>247</v>
       </c>
@@ -3575,9 +3575,9 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
+    <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="1" t="s">
         <v>249</v>
       </c>
@@ -3589,9 +3589,9 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
+    <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="1" t="s">
         <v>251</v>
       </c>
@@ -3603,9 +3603,9 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
+    <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="1" t="s">
         <v>253</v>
       </c>
@@ -3617,9 +3617,9 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
+    <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="1" t="s">
         <v>255</v>
       </c>
@@ -3631,9 +3631,9 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
+    <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="1" t="s">
         <v>424</v>
       </c>
@@ -3645,11 +3645,11 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
+    <row r="109" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="18" t="s">
         <v>258</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -3667,9 +3667,9 @@
       </c>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
+    <row r="110" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="1" t="s">
         <v>263</v>
       </c>
@@ -3681,9 +3681,9 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
+    <row r="111" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="5" t="s">
         <v>265</v>
       </c>
@@ -3695,9 +3695,9 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
+    <row r="112" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="1" t="s">
         <v>267</v>
       </c>
@@ -3709,9 +3709,9 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
+    <row r="113" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="1" t="s">
         <v>269</v>
       </c>
@@ -3723,9 +3723,9 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
+    <row r="114" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="1" t="s">
         <v>271</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
         <v>420</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>273</v>
       </c>
@@ -3765,11 +3765,11 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
+    <row r="117" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="18" t="s">
         <v>276</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3789,9 +3789,9 @@
       </c>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
+    <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="1" t="s">
         <v>282</v>
       </c>
@@ -3803,9 +3803,9 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
+    <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="1" t="s">
         <v>284</v>
       </c>
@@ -3817,9 +3817,9 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
+    <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="1" t="s">
         <v>286</v>
       </c>
@@ -3833,11 +3833,11 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
+    <row r="121" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="18" t="s">
         <v>290</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -3851,9 +3851,9 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
+    <row r="122" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="1" t="s">
         <v>293</v>
       </c>
@@ -3867,9 +3867,9 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="B123" s="20"/>
+    <row r="123" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="1" t="s">
         <v>296</v>
       </c>
@@ -3883,9 +3883,9 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
+    <row r="124" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="1" t="s">
         <v>299</v>
       </c>
@@ -3899,9 +3899,9 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20"/>
+    <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="1" t="s">
         <v>302</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
         <v>440</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
         <v>443</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>392</v>
       </c>
@@ -3959,11 +3959,11 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="10" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20" t="s">
+    <row r="129" spans="1:8" s="10" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="18" t="s">
         <v>399</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -3979,9 +3979,9 @@
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="1:8" s="10" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
+    <row r="130" spans="1:8" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="7" t="s">
         <v>401</v>
       </c>
@@ -3993,9 +3993,9 @@
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="1:8" s="10" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20"/>
+    <row r="131" spans="1:8" s="10" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="14" t="s">
         <v>430</v>
       </c>
@@ -4009,9 +4009,9 @@
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="1:8" s="10" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
+    <row r="132" spans="1:8" s="10" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="18"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="14" t="s">
         <v>436</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
         <v>307</v>
       </c>
@@ -4045,11 +4045,11 @@
       </c>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
+    <row r="134" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A134" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="18" t="s">
         <v>407</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -4065,9 +4065,9 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
+    <row r="135" spans="1:8" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="17"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="8" t="s">
         <v>405</v>
       </c>
@@ -4079,9 +4079,9 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
+    <row r="136" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="13" t="s">
         <v>446</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
         <v>315</v>
       </c>
@@ -4113,8 +4113,8 @@
       </c>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
+    <row r="138" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="20" t="s">
         <v>317</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
         <v>321</v>
       </c>
@@ -4147,11 +4147,11 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="20" t="s">
+    <row r="140" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="18" t="s">
         <v>324</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -4165,9 +4165,9 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
-      <c r="B141" s="20"/>
+    <row r="141" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="1" t="s">
         <v>326</v>
       </c>
@@ -4179,9 +4179,9 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20"/>
+    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A142" s="18"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="1" t="s">
         <v>328</v>
       </c>
@@ -4193,9 +4193,9 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
-      <c r="B143" s="20"/>
+    <row r="143" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="18"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="1" t="s">
         <v>330</v>
       </c>
@@ -4207,9 +4207,9 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20"/>
+    <row r="144" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="1" t="s">
         <v>332</v>
       </c>
@@ -4223,9 +4223,9 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
-      <c r="B145" s="20"/>
+    <row r="145" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="18"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="1" t="s">
         <v>415</v>
       </c>
@@ -4235,9 +4235,9 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
-      <c r="B146" s="20"/>
+    <row r="146" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="1" t="s">
         <v>426</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>335</v>
       </c>
@@ -4265,11 +4265,11 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
+    <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="B148" s="20" t="s">
+      <c r="B148" s="18" t="s">
         <v>339</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -4283,9 +4283,9 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
-      <c r="B149" s="20"/>
+    <row r="149" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="18"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="1" t="s">
         <v>342</v>
       </c>
@@ -4297,9 +4297,9 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
-      <c r="B150" s="20"/>
+    <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="18"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="1" t="s">
         <v>344</v>
       </c>
@@ -4311,9 +4311,9 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
-      <c r="B151" s="20"/>
+    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="1" t="s">
         <v>346</v>
       </c>
@@ -4325,9 +4325,9 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
-      <c r="B152" s="20"/>
+    <row r="152" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="18"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="1" t="s">
         <v>348</v>
       </c>
@@ -4339,9 +4339,9 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
-      <c r="B153" s="20"/>
+    <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="1" t="s">
         <v>350</v>
       </c>
@@ -4353,9 +4353,9 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
-      <c r="B154" s="20"/>
+    <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="18"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="1" t="s">
         <v>352</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="s">
         <v>449</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
         <v>459</v>
       </c>
@@ -4395,7 +4395,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>354</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>357</v>
       </c>
@@ -4427,11 +4427,11 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="20" t="s">
+    <row r="159" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="18" t="s">
         <v>361</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -4445,9 +4445,9 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
-      <c r="B160" s="20"/>
+    <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="18"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="1" t="s">
         <v>364</v>
       </c>
@@ -4459,9 +4459,9 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
-      <c r="B161" s="20"/>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" s="18"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="1" t="s">
         <v>366</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
         <v>367</v>
       </c>
@@ -4485,17 +4485,17 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20" t="s">
+    <row r="163" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="B163" s="20" t="s">
+      <c r="B163" s="18" t="s">
         <v>378</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="21" t="s">
         <v>380</v>
       </c>
       <c r="E163" s="1"/>
@@ -4503,13 +4503,13 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
-      <c r="B164" s="20"/>
+    <row r="164" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="D164" s="17" t="s">
+      <c r="D164" s="22" t="s">
         <v>370</v>
       </c>
       <c r="E164" s="1"/>
@@ -4517,13 +4517,13 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
-      <c r="B165" s="20"/>
+    <row r="165" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="D165" s="16" t="s">
+      <c r="D165" s="21" t="s">
         <v>434</v>
       </c>
       <c r="E165" s="14" t="s">
@@ -4533,13 +4533,13 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
-      <c r="B166" s="20"/>
+    <row r="166" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="18"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="23" t="s">
         <v>452</v>
       </c>
       <c r="E166" s="14" t="s">
@@ -4549,11 +4549,11 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="19" t="s">
+    <row r="167" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B167" s="20" t="s">
+      <c r="B167" s="18" t="s">
         <v>372</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -4567,9 +4567,9 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="19"/>
-      <c r="B168" s="20"/>
+    <row r="168" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="17"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="6" t="s">
         <v>373</v>
       </c>
@@ -4577,9 +4577,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
+    <row r="169" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="17"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="6" t="s">
         <v>383</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>375</v>
       </c>
@@ -4600,38 +4600,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="A148:A154"/>
-    <mergeCell ref="B148:B154"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B99:B108"/>
-    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="A31:A43"/>
     <mergeCell ref="B31:B43"/>
     <mergeCell ref="B12:B23"/>
     <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="B49:B57"/>
     <mergeCell ref="A59:A67"/>
@@ -4642,18 +4622,32 @@
     <mergeCell ref="B95:B98"/>
     <mergeCell ref="A68:A74"/>
     <mergeCell ref="B68:B74"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B99:B108"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="A148:A154"/>
+    <mergeCell ref="B148:B154"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D009037354106145AFF53138C3A15B5B" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1192de137dfb0dac501f70ec84eca612">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49df82a0-becc-4ef3-aa57-ac77f6d841c6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="585a6fc3ef7f7fa528f2c37fd9f8cac5" ns2:_="">
     <xsd:import namespace="49df82a0-becc-4ef3-aa57-ac77f6d841c6"/>
@@ -4837,6 +4831,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4847,22 +4847,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3241CC-812D-4AE0-87E3-DC763F2B6D27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49df82a0-becc-4ef3-aa57-ac77f6d841c6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5280F00-08C5-4424-8C69-5F59D5F29D10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4880,6 +4864,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3241CC-812D-4AE0-87E3-DC763F2B6D27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="49df82a0-becc-4ef3-aa57-ac77f6d841c6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA2DC54-7D78-41CD-B776-ED94CCCAC36D}">
   <ds:schemaRefs>

--- a/OperationCoding (solo cycle time).xlsx
+++ b/OperationCoding (solo cycle time).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0.sharepoint.com/sites/PEJUS685/Documentos compartidos/General/BPI Challenge/Artículo/Material suplementario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\bpi-challenge-performance-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{F7909D8E-4EE6-4C99-A3C0-6D0DF1FE3712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7521DF08-CEEA-44E7-A7C9-9C9F5286D464}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953C85C-4082-441B-A40A-444A3D97156B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="462">
   <si>
     <t>General operations</t>
   </si>
@@ -1450,6 +1450,12 @@
   </si>
   <si>
     <t>Represent correlation graph of variables</t>
+  </si>
+  <si>
+    <t>Función implementada?</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1584,18 +1590,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1609,6 +1603,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1951,8 +1960,8 @@
   <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1962,8 +1971,9 @@
     <col min="3" max="3" width="49.54296875" customWidth="1"/>
     <col min="4" max="4" width="44.453125" customWidth="1"/>
     <col min="5" max="5" width="23.7265625" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" customWidth="1"/>
-    <col min="7" max="7" width="39.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1983,18 +1993,20 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2004,13 +2016,15 @@
         <v>10</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2018,13 +2032,12 @@
         <v>12</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2032,13 +2045,12 @@
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2046,13 +2058,15 @@
         <v>439</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2060,13 +2074,12 @@
         <v>17</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2074,13 +2087,15 @@
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2088,13 +2103,15 @@
         <v>21</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2104,7 +2121,6 @@
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -2116,7 +2132,6 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -2130,19 +2145,18 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2152,13 +2166,15 @@
         <v>32</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2168,13 +2184,12 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2182,13 +2197,15 @@
         <v>37</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="1" t="s">
         <v>393</v>
       </c>
@@ -2196,13 +2213,15 @@
         <v>394</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2210,13 +2229,12 @@
         <v>39</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
         <v>396</v>
       </c>
@@ -2224,13 +2242,12 @@
         <v>40</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2238,13 +2255,12 @@
         <v>42</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
         <v>397</v>
       </c>
@@ -2252,13 +2268,12 @@
         <v>43</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
@@ -2266,13 +2281,12 @@
         <v>45</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,13 +2294,12 @@
         <v>388</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
@@ -2294,13 +2307,15 @@
         <v>48</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="1" t="s">
         <v>387</v>
       </c>
@@ -2308,12 +2323,11 @@
         <v>389</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>428</v>
@@ -2322,7 +2336,6 @@
         <v>429</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -2336,7 +2349,6 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -2350,7 +2362,6 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -2364,13 +2375,12 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -2382,13 +2392,12 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -2400,13 +2409,12 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -2418,19 +2426,18 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2440,33 +2447,37 @@
         <v>66</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="1" t="s">
         <v>72</v>
       </c>
@@ -2474,13 +2485,15 @@
         <v>73</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2488,13 +2501,12 @@
         <v>75</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="1" t="s">
         <v>76</v>
       </c>
@@ -2502,13 +2514,12 @@
         <v>77</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="1" t="s">
         <v>78</v>
       </c>
@@ -2516,13 +2527,12 @@
         <v>79</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="1" t="s">
         <v>80</v>
       </c>
@@ -2530,13 +2540,15 @@
         <v>81</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2544,13 +2556,15 @@
         <v>83</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
@@ -2558,13 +2572,15 @@
         <v>85</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2572,13 +2588,12 @@
         <v>87</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="1" t="s">
         <v>88</v>
       </c>
@@ -2586,13 +2601,12 @@
         <v>89</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2600,13 +2614,12 @@
         <v>91</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2614,15 +2627,14 @@
         <v>93</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="21" t="s">
         <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2634,30 +2646,31 @@
       <c r="E44" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="1" t="s">
         <v>100</v>
       </c>
@@ -2665,17 +2678,19 @@
         <v>101</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="1" t="s">
         <v>103</v>
       </c>
@@ -2683,13 +2698,12 @@
         <v>386</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="1" t="s">
         <v>104</v>
       </c>
@@ -2699,15 +2713,14 @@
       <c r="E48" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="23" t="s">
         <v>108</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2717,13 +2730,12 @@
         <v>110</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="1" t="s">
         <v>111</v>
       </c>
@@ -2733,13 +2745,12 @@
       <c r="E50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="1" t="s">
         <v>114</v>
       </c>
@@ -2747,13 +2758,12 @@
         <v>115</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="1" t="s">
         <v>116</v>
       </c>
@@ -2761,13 +2771,12 @@
         <v>117</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="16"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="1" t="s">
         <v>118</v>
       </c>
@@ -2775,13 +2784,12 @@
         <v>119</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="1" t="s">
         <v>120</v>
       </c>
@@ -2789,13 +2797,12 @@
         <v>121</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="18"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="1" t="s">
         <v>122</v>
       </c>
@@ -2803,13 +2810,12 @@
         <v>123</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A56" s="18"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="1" t="s">
         <v>124</v>
       </c>
@@ -2819,13 +2825,12 @@
       <c r="E56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="18"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="1" t="s">
         <v>127</v>
       </c>
@@ -2835,7 +2840,6 @@
       <c r="E57" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -2849,19 +2853,18 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2873,13 +2876,15 @@
       <c r="E59" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="1" t="s">
         <v>139</v>
       </c>
@@ -2889,13 +2894,15 @@
       <c r="E60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="1" t="s">
         <v>142</v>
       </c>
@@ -2903,13 +2910,15 @@
         <v>143</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="1" t="s">
         <v>144</v>
       </c>
@@ -2919,25 +2928,26 @@
       <c r="E62" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="1" t="s">
         <v>148</v>
       </c>
@@ -2945,13 +2955,12 @@
         <v>149</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="1" t="s">
         <v>150</v>
       </c>
@@ -2961,13 +2970,12 @@
       <c r="E65" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="1" t="s">
         <v>153</v>
       </c>
@@ -2977,13 +2985,12 @@
       <c r="E66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="1" t="s">
         <v>156</v>
       </c>
@@ -2993,15 +3000,14 @@
       <c r="E67" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="21" t="s">
         <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3011,17 +3017,16 @@
         <v>162</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="1" t="s">
         <v>165</v>
       </c>
@@ -3029,17 +3034,16 @@
         <v>390</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="1" t="s">
         <v>167</v>
       </c>
@@ -3047,17 +3051,16 @@
         <v>168</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="1" t="s">
         <v>171</v>
       </c>
@@ -3065,13 +3068,15 @@
         <v>172</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="1" t="s">
         <v>173</v>
       </c>
@@ -3079,13 +3084,12 @@
         <v>174</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="1" t="s">
         <v>175</v>
       </c>
@@ -3093,13 +3097,12 @@
         <v>176</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="1" t="s">
         <v>413</v>
       </c>
@@ -3107,7 +3110,6 @@
         <v>414</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
@@ -3121,13 +3123,12 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
@@ -3139,13 +3140,12 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
@@ -3157,13 +3157,12 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
@@ -3175,13 +3174,12 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
@@ -3195,13 +3193,12 @@
       <c r="E79" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
@@ -3213,7 +3210,6 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
@@ -3227,7 +3223,6 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
@@ -3241,7 +3236,6 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
@@ -3255,7 +3249,6 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
@@ -3269,13 +3262,12 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
@@ -3287,13 +3279,12 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
@@ -3305,19 +3296,18 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="21" t="s">
         <v>213</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3327,13 +3317,15 @@
         <v>215</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="1" t="s">
         <v>216</v>
       </c>
@@ -3341,13 +3333,12 @@
         <v>217</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="1" t="s">
         <v>218</v>
       </c>
@@ -3355,13 +3346,12 @@
         <v>219</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="1" t="s">
         <v>220</v>
       </c>
@@ -3369,13 +3359,12 @@
         <v>221</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="1" t="s">
         <v>222</v>
       </c>
@@ -3385,15 +3374,14 @@
       <c r="E91" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="24" t="s">
         <v>410</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -3403,13 +3391,12 @@
         <v>411</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="18"/>
-      <c r="B93" s="15"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="1" t="s">
         <v>416</v>
       </c>
@@ -3417,7 +3404,6 @@
         <v>417</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
@@ -3431,15 +3417,14 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="21" t="s">
         <v>228</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -3449,13 +3434,12 @@
         <v>230</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="6" t="s">
         <v>231</v>
       </c>
@@ -3465,13 +3449,12 @@
       <c r="E96" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="1" t="s">
         <v>233</v>
       </c>
@@ -3479,13 +3462,12 @@
         <v>234</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="1" t="s">
         <v>403</v>
       </c>
@@ -3493,15 +3475,14 @@
         <v>404</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="21" t="s">
         <v>236</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3511,17 +3492,16 @@
         <v>238</v>
       </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="1" t="s">
         <v>241</v>
       </c>
@@ -3529,13 +3509,15 @@
         <v>242</v>
       </c>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="1" t="s">
         <v>243</v>
       </c>
@@ -3543,13 +3525,15 @@
         <v>244</v>
       </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F101" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="1" t="s">
         <v>245</v>
       </c>
@@ -3557,13 +3541,12 @@
         <v>246</v>
       </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="1" t="s">
         <v>247</v>
       </c>
@@ -3571,13 +3554,12 @@
         <v>248</v>
       </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="1" t="s">
         <v>249</v>
       </c>
@@ -3585,13 +3567,12 @@
         <v>250</v>
       </c>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="1" t="s">
         <v>251</v>
       </c>
@@ -3599,13 +3580,12 @@
         <v>252</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="1" t="s">
         <v>253</v>
       </c>
@@ -3613,13 +3593,12 @@
         <v>254</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="1" t="s">
         <v>255</v>
       </c>
@@ -3627,13 +3606,12 @@
         <v>256</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="1" t="s">
         <v>424</v>
       </c>
@@ -3641,15 +3619,14 @@
         <v>425</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="21" t="s">
         <v>258</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -3659,17 +3636,19 @@
         <v>260</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="1" t="s">
         <v>263</v>
       </c>
@@ -3677,13 +3656,12 @@
         <v>264</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="5" t="s">
         <v>265</v>
       </c>
@@ -3691,13 +3669,12 @@
         <v>266</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="1" t="s">
         <v>267</v>
       </c>
@@ -3705,13 +3682,12 @@
         <v>268</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="1" t="s">
         <v>269</v>
       </c>
@@ -3719,13 +3695,12 @@
         <v>270</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="1" t="s">
         <v>271</v>
       </c>
@@ -3733,7 +3708,6 @@
         <v>272</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
@@ -3747,7 +3721,6 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
@@ -3761,15 +3734,14 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="21" t="s">
         <v>276</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3781,17 +3753,19 @@
       <c r="E117" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="1" t="s">
         <v>282</v>
       </c>
@@ -3799,13 +3773,15 @@
         <v>283</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="F118" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="1" t="s">
         <v>284</v>
       </c>
@@ -3813,13 +3789,15 @@
         <v>285</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="F119" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="1" t="s">
         <v>286</v>
       </c>
@@ -3829,15 +3807,17 @@
       <c r="E120" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F120" s="1"/>
+      <c r="F120" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -3847,13 +3827,12 @@
         <v>292</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="1" t="s">
         <v>293</v>
       </c>
@@ -3863,13 +3842,12 @@
       <c r="E122" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="1" t="s">
         <v>296</v>
       </c>
@@ -3879,13 +3857,12 @@
       <c r="E123" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="1" t="s">
         <v>299</v>
       </c>
@@ -3895,13 +3872,12 @@
       <c r="E124" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="1" t="s">
         <v>302</v>
       </c>
@@ -3909,7 +3885,6 @@
         <v>303</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
@@ -3925,7 +3900,6 @@
       <c r="E126" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
@@ -3941,7 +3915,6 @@
       <c r="E127" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
@@ -3955,15 +3928,14 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" s="10" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="21" t="s">
         <v>399</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -3975,13 +3947,13 @@
       <c r="E129" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F129" s="7"/>
+      <c r="F129" s="15"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="7" t="s">
         <v>401</v>
       </c>
@@ -3989,13 +3961,13 @@
         <v>400</v>
       </c>
       <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
+      <c r="F130" s="15"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8" s="10" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="14" t="s">
         <v>430</v>
       </c>
@@ -4005,13 +3977,13 @@
       <c r="E131" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F131" s="14"/>
+      <c r="F131" s="15"/>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" s="10" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="18"/>
-      <c r="B132" s="18"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="14" t="s">
         <v>436</v>
       </c>
@@ -4021,7 +3993,7 @@
       <c r="E132" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="F132" s="14"/>
+      <c r="F132" s="15"/>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
     </row>
@@ -4037,19 +4009,18 @@
       <c r="E133" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="G133" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="21" t="s">
         <v>407</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -4061,13 +4032,12 @@
       <c r="E134" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="17"/>
-      <c r="B135" s="18"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="8" t="s">
         <v>405</v>
       </c>
@@ -4075,13 +4045,12 @@
         <v>408</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="13" t="s">
         <v>446</v>
       </c>
@@ -4091,7 +4060,6 @@
       <c r="E136" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
@@ -4105,16 +4073,15 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="20" t="s">
+      <c r="A138" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -4125,13 +4092,12 @@
       <c r="E138" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
@@ -4143,15 +4109,14 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="21" t="s">
         <v>324</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -4161,13 +4126,12 @@
         <v>395</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="1" t="s">
         <v>326</v>
       </c>
@@ -4175,13 +4139,15 @@
         <v>327</v>
       </c>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="F141" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="1" t="s">
         <v>328</v>
       </c>
@@ -4189,13 +4155,12 @@
         <v>329</v>
       </c>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="18"/>
-      <c r="B143" s="18"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="1" t="s">
         <v>330</v>
       </c>
@@ -4203,13 +4168,12 @@
         <v>331</v>
       </c>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="18"/>
-      <c r="B144" s="18"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="1" t="s">
         <v>332</v>
       </c>
@@ -4219,25 +4183,26 @@
       <c r="E144" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F144" s="1"/>
+      <c r="F144" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="18"/>
-      <c r="B145" s="18"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="1" t="s">
         <v>415</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="1" t="s">
         <v>426</v>
       </c>
@@ -4245,7 +4210,6 @@
         <v>427</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
@@ -4261,15 +4225,17 @@
       <c r="E147" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F147" s="1"/>
+      <c r="F147" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="21" t="s">
         <v>339</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -4279,13 +4245,15 @@
         <v>341</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="1" t="s">
         <v>342</v>
       </c>
@@ -4293,13 +4261,15 @@
         <v>343</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="F149" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="1" t="s">
         <v>344</v>
       </c>
@@ -4307,13 +4277,15 @@
         <v>345</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="F150" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="1" t="s">
         <v>346</v>
       </c>
@@ -4321,13 +4293,15 @@
         <v>347</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="F151" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="18"/>
-      <c r="B152" s="18"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="1" t="s">
         <v>348</v>
       </c>
@@ -4335,13 +4309,15 @@
         <v>349</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="F152" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="21"/>
       <c r="C153" s="1" t="s">
         <v>350</v>
       </c>
@@ -4349,13 +4325,12 @@
         <v>351</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
     <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="1" t="s">
         <v>352</v>
       </c>
@@ -4363,7 +4338,6 @@
         <v>353</v>
       </c>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
@@ -4377,7 +4351,6 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
@@ -4391,7 +4364,6 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
@@ -4407,7 +4379,9 @@
       <c r="E157" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F157" s="1"/>
+      <c r="F157" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
@@ -4423,15 +4397,14 @@
       <c r="E158" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="18" t="s">
+      <c r="A159" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="21" t="s">
         <v>361</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -4441,13 +4414,15 @@
         <v>363</v>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="F159" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="1" t="s">
         <v>364</v>
       </c>
@@ -4455,19 +4430,20 @@
         <v>365</v>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="F160" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="18"/>
-      <c r="B161" s="18"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="1" t="s">
         <v>366</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
@@ -4481,79 +4457,77 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="F162" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
     <row r="163" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="21" t="s">
         <v>378</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D163" s="21" t="s">
+      <c r="D163" s="17" t="s">
         <v>380</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="18" t="s">
         <v>370</v>
       </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
     <row r="165" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="D165" s="21" t="s">
+      <c r="D165" s="17" t="s">
         <v>434</v>
       </c>
       <c r="E165" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="D166" s="23" t="s">
+      <c r="D166" s="19" t="s">
         <v>452</v>
       </c>
       <c r="E166" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
     <row r="167" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="21" t="s">
         <v>372</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -4563,23 +4537,25 @@
         <v>382</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="17"/>
-      <c r="B168" s="18"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="6" t="s">
         <v>373</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>374</v>
       </c>
+      <c r="F168" s="15" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="169" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="17"/>
-      <c r="B169" s="18"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="6" t="s">
         <v>383</v>
       </c>
@@ -4600,18 +4576,38 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="A148:A154"/>
+    <mergeCell ref="B148:B154"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B99:B108"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="B31:B43"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="A12:A24"/>
     <mergeCell ref="A134:A136"/>
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="A163:A166"/>
     <mergeCell ref="B163:B166"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="B31:B43"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="A12:A24"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="B49:B57"/>
     <mergeCell ref="A59:A67"/>
@@ -4622,32 +4618,19 @@
     <mergeCell ref="B95:B98"/>
     <mergeCell ref="A68:A74"/>
     <mergeCell ref="B68:B74"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B99:B108"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="A148:A154"/>
-    <mergeCell ref="B148:B154"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D009037354106145AFF53138C3A15B5B" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1192de137dfb0dac501f70ec84eca612">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49df82a0-becc-4ef3-aa57-ac77f6d841c6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="585a6fc3ef7f7fa528f2c37fd9f8cac5" ns2:_="">
     <xsd:import namespace="49df82a0-becc-4ef3-aa57-ac77f6d841c6"/>
@@ -4831,12 +4814,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4847,6 +4824,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3241CC-812D-4AE0-87E3-DC763F2B6D27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="49df82a0-becc-4ef3-aa57-ac77f6d841c6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5280F00-08C5-4424-8C69-5F59D5F29D10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4864,22 +4857,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3241CC-812D-4AE0-87E3-DC763F2B6D27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="49df82a0-becc-4ef3-aa57-ac77f6d841c6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA2DC54-7D78-41CD-B776-ED94CCCAC36D}">
   <ds:schemaRefs>
